--- a/analyses/T7-incubations/unipept/lca/NAAF/all-stations-taxa.xlsx
+++ b/analyses/T7-incubations/unipept/lca/NAAF/all-stations-taxa.xlsx
@@ -335,8 +335,8 @@
   </sheetPr>
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O32" activeCellId="0" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/analyses/T7-incubations/unipept/lca/NAAF/all-stations-taxa.xlsx
+++ b/analyses/T7-incubations/unipept/lca/NAAF/all-stations-taxa.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="phylum" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="class" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="122">
   <si>
     <t xml:space="preserve">MN</t>
   </si>
@@ -224,6 +225,168 @@
   </si>
   <si>
     <t xml:space="preserve">Calditrichaeota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verrucomicrobiae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variosea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermoprotei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermoleophilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sphingobacteriia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sordariomycetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saccharomycetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planctomycetia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pezizomycetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opitutae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oligoflexia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrospira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nephroselmidophyceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negativicutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nanohaloarchaea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mucoromycetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monjiviricetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methanomicrobia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediophyceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnoliopsida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leotiomycetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignavibacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haptophyta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halobacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gammaproteobacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fusobacteriia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flavobacteriia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eurotiomycetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epsilonproteobacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elardia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dothideomycetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deltaproteobacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deferribacteres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytophagia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coscinodiscophyceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conexivisphaeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clostridia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorophyceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorodendrophyceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorobia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chitinophagia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caudoviricetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bryopsida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betaproteobacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balneolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacteroidia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacilli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacillariophyceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alphaproteobacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agaricomycetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actinomycetia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aconoidasida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acidobacteriia</t>
   </si>
 </sst>
 </file>
@@ -233,11 +396,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -253,12 +417,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -303,16 +461,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -335,79 +489,79 @@
   </sheetPr>
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O32" activeCellId="0" sqref="O32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N21" activeCellId="0" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="N2" s="1" t="s">
@@ -427,28 +581,28 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -463,12 +617,12 @@
       <c r="Q3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="R3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -477,22 +631,22 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -504,36 +658,36 @@
       <c r="P4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="Q4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -542,56 +696,56 @@
       <c r="P5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="Q5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="O6" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>48</v>
       </c>
       <c r="N7" s="1" t="s">
@@ -599,154 +753,154 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>49</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="O8" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>52</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="O9" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="0" t="s">
+      <c r="O10" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>47</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O11" s="0" t="s">
+      <c r="O11" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N12" s="0" t="s">
+      <c r="N12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O12" s="0" t="s">
+      <c r="O12" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N13" s="0" t="s">
+      <c r="N13" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="1" t="s">
         <v>59</v>
       </c>
       <c r="N14" s="1" t="s">
@@ -754,89 +908,89 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>60</v>
       </c>
       <c r="H15" s="1"/>
       <c r="N15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O15" s="0" t="s">
+      <c r="O15" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>61</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O16" s="0" t="s">
+      <c r="O16" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N17" s="0" t="s">
+      <c r="N17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O17" s="0" t="s">
+      <c r="O17" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H18" s="1"/>
@@ -848,16 +1002,16 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -865,16 +1019,16 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -883,16 +1037,16 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -900,16 +1054,16 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -917,13 +1071,13 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -931,13 +1085,13 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -945,13 +1099,13 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -959,27 +1113,27 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -987,10 +1141,10 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -999,10 +1153,10 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -1010,10 +1164,10 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -1021,7 +1175,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -1029,7 +1183,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1059,7 +1213,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F38" s="0" t="s">
+      <c r="F38" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1072,4 +1226,306 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A55"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.78"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>